--- a/CW/exps.xlsx
+++ b/CW/exps.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laerte/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2972F669-39BB-1A47-AF9F-AAFEEBFFACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E900D-9737-B444-83E4-0C989DE61C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{430225F4-773E-461D-8CBF-54F4BBEB3D32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{430225F4-773E-461D-8CBF-54F4BBEB3D32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$M$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>Backbone</t>
   </si>
@@ -50,21 +53,12 @@
     <t>Pretrained</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>meanPA</t>
   </si>
   <si>
     <t>meanIoU</t>
   </si>
   <si>
-    <t>Trainable params</t>
-  </si>
-  <si>
     <t>Training time</t>
   </si>
   <si>
@@ -113,22 +107,6 @@
     <t>Standard FCN (bilinear interpolation)</t>
   </si>
   <si>
-    <t>Loss type</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>Use backbone weights
-- Set backbone grad to false</t>
-  </si>
-  <si>
-    <t>Pretrained Y</t>
-  </si>
-  <si>
     <t>Partially</t>
   </si>
   <si>
@@ -159,10 +137,112 @@
     <t>fcn_res_part_6clas</t>
   </si>
   <si>
-    <t>fcn_res_part_4clas</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>vgg_no</t>
+  </si>
+  <si>
+    <t>Loss Type</t>
+  </si>
+  <si>
+    <t>fcn_impr</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>9,443,338 / 32,951,370</t>
+  </si>
+  <si>
+    <t>Trainable / total params</t>
+  </si>
+  <si>
+    <t>32,951,370 / 32,951,370</t>
+  </si>
+  <si>
+    <t>1e-3 / 1e-4</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>1e-4</t>
+  </si>
+  <si>
+    <t>9 h</t>
+  </si>
+  <si>
+    <t>vgg_impr</t>
+  </si>
+  <si>
+    <t>res_no_small_lr</t>
+  </si>
+  <si>
+    <t>34,234,890 / 34,234,890</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>15,917,888 / 15,917,888</t>
+  </si>
+  <si>
+    <t>Overfitting / good id_9</t>
+  </si>
+  <si>
+    <t>Qua da vedere se la IoU migliora dato che abbiamo escluso classi molto piccole</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Forse corse output troppo piccolo!! Non riesce a cogliere i dettagli e il decoder è troppo brusco. Per questo provo con improved decoder sotto</t>
+  </si>
+  <si>
+    <t>res_no_4clas</t>
+  </si>
+  <si>
+    <t>res_no_6clas</t>
+  </si>
+  <si>
+    <t>BCEDiceLoss</t>
+  </si>
+  <si>
+    <t>res_no_dice</t>
+  </si>
+  <si>
+    <t>res_no_bcedice</t>
+  </si>
+  <si>
+    <t>32,949,318 / 32,949,318</t>
+  </si>
+  <si>
+    <t>32,948,292 / 32,948,292</t>
+  </si>
+  <si>
+    <t>10 h</t>
+  </si>
+  <si>
+    <t>16,287,674 / 16,287,674</t>
+  </si>
+  <si>
+    <t>Vgg16 mod</t>
+  </si>
+  <si>
+    <t>Resnet50 mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 h </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>res_mod_v2</t>
+  </si>
+  <si>
+    <t>14,551,562 / 14,551,562</t>
+  </si>
+  <si>
+    <t>vgg_mod_v2</t>
   </si>
 </sst>
 </file>
@@ -186,15 +266,87 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -308,35 +460,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -348,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,35 +498,64 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,283 +870,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83319B7D-D51F-4BA1-9DAA-90C9152FDB8C}">
-  <dimension ref="B1:O18"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="10" max="11" width="15.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11" style="9" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17" style="9" customWidth="1"/>
+    <col min="11" max="12" width="8.83203125" style="9"/>
+    <col min="13" max="13" width="63.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
-        <v>34</v>
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="O3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="O4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="O5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="O6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="O7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="B11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="F11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M11" s="19"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="12" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="N3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="E15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M15" s="21"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="N5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="N6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="N7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="15" t="s">
+      <c r="G16" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="13" t="s">
+      <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
+      <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M16" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C9:E9"/>
-  </mergeCells>
+  <autoFilter ref="B2:M16" xr:uid="{83319B7D-D51F-4BA1-9DAA-90C9152FDB8C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F3:F16" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>